--- a/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_Out_INN_By_Branch.xlsx
+++ b/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_Out_INN_By_Branch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7410" windowWidth="19200" windowHeight="10215" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="8310" windowWidth="19200" windowHeight="10215" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>месяц</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>номер  филиала</t>
+  </si>
+  <si>
+    <t>Дата регистрации НН</t>
   </si>
 </sst>
 </file>
@@ -1193,25 +1196,26 @@
   <sheetPr codeName="Лист4">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
@@ -1223,33 +1227,37 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1392,7 +1400,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1455,25 +1463,26 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
@@ -1485,33 +1494,37 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
